--- a/SocialNetwork.xlsx
+++ b/SocialNetwork.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfoo\Desktop\MACAD\03_AIA\01_GRAPHML\SESSION1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfoo\Desktop\MACAD\03_AIA\01_GRAPHML\SESSION1\GraphMLSession1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FFC9607-749F-4259-B998-8781624452EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDFFE002-62C6-4DA9-B430-AEB501747D57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14010" yWindow="-21600" windowWidth="38400" windowHeight="21000" xr2:uid="{6E5A030C-5941-44E5-824B-05ECB29309DF}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="12735" xr2:uid="{6E5A030C-5941-44E5-824B-05ECB29309DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -743,8 +743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8F30E33-830E-4572-A9A5-BFF428F7570A}">
   <dimension ref="A1:D89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1183,7 +1183,7 @@
         <v>50</v>
       </c>
       <c r="C31" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="D31" s="1">
         <v>0.7</v>
@@ -1197,7 +1197,7 @@
         <v>50</v>
       </c>
       <c r="C32" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="D32" s="1">
         <v>0.75</v>
